--- a/Ananse2/Ananse2Learned.xlsx
+++ b/Ananse2/Ananse2Learned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akan\New Ananse Tales\Ananse2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17EE156-4525-406E-8560-670A3627ACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC84293A-983F-468F-9DC0-0842B1C9BBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29520" yWindow="2910" windowWidth="16950" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="437">
   <si>
     <t>AKAN</t>
   </si>
@@ -854,6 +854,483 @@
   </si>
   <si>
     <t>&lt;M'anansesem|NOUN&gt; &lt;a|PART&gt; &lt;metooye|VERB&gt; &lt;yi,|PRON&gt; &lt;se|VERB&gt; &lt;eye|VERB&gt; &lt;de|NOUN&gt; &lt;o,|PRON&gt; &lt;se|VERB&gt; &lt;ennye|VERB&gt; &lt;de|NOUN&gt; &lt;o,|PRON&gt; &lt;momfa|VERB&gt; &lt;bi|PRON&gt; &lt;nko,|VERB&gt; &lt;na|CONJ&gt; &lt;momfa|VERB&gt; &lt;bi|PRON&gt; &lt;mmera.|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;We|PRON&gt; &lt;do|VERB&gt; &lt;not|ADV&gt; &lt;really|ADV&gt; &lt;mean,|VERB&gt; &lt;we|PRON&gt; &lt;do|VERB&gt; &lt;not|ADV&gt; &lt;really|ADV&gt; &lt;mean,|VERB&gt; &lt;(that|CONJ&gt; &lt;what|PRON&gt; &lt;we|PRON&gt; &lt;are|VERB&gt; &lt;going|VERB&gt; &lt;to|PART&gt; &lt;say|VERB&gt; &lt;is|VERB&gt; &lt;true)|ADJ&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ANANSE,|PROPN&gt; &lt;THE|DET&gt; &lt;SPIDER,|PROPN&gt; &lt;SAID|VERB&gt; &lt;HE|PRON&gt; &lt;WAS|VERB&gt; &lt;GOING|VERB&gt; &lt;IN|PREP&gt; &lt;SEARCH|NOUN&gt; &lt;OF|PREP&gt; &lt;A|DET&gt; &lt;FOOL,|NOUN&gt; &lt;WHILE|CONJ&gt; &lt;ALL|DET&gt; &lt;THE|DET&gt; &lt;TIME|NOUN&gt; &lt;HE|PRON&gt; &lt;HIMSELF|PRON&gt; &lt;WAS|VERB&gt; &lt;A|DET&gt; &lt;FOOL.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ANANSE,|PROPN&gt; &lt;the|DET&gt; &lt;Spider,|NOUN&gt; &lt;was|VERB&gt; &lt;once|ADV&gt; &lt;living|VERB&gt; &lt;there,|ADV&gt; &lt;and|CONJ&gt; &lt;he|PRON&gt; &lt;said|VERB&gt; &lt;he|PRON&gt; &lt;was|VERB&gt; &lt;wanting|VERB&gt; &lt;a|DET&gt; &lt;fool|NOUN&gt; &lt;to|PART&gt; &lt;go|VERB&gt; &lt;with|PREP&gt; &lt;him|PRON&gt; &lt;to|PART&gt; &lt;set|VERB&gt; &lt;fish-traps.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;He|PRON&gt; &lt;wandered|VERB&gt; &lt;all|DET&gt; &lt;about,|ADV&gt; &lt;but|CONJ&gt; &lt;could|VERB&gt; &lt;not|ADV&gt; &lt;get|VERB&gt; &lt;one.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Then|ADV&gt; &lt;he|PRON&gt; &lt;met|VERB&gt; &lt;Osansa,|PROPN&gt; &lt;the|DET&gt; &lt;Hawk.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;He|PRON&gt; &lt;said,|VERB&gt; &lt;"Let|VERB&gt; &lt;us|PRON&gt; &lt;go|VERB&gt; &lt;and|CONJ&gt; &lt;set|VERB&gt; &lt;fish-traps."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Hawk|PROPN&gt; &lt;replied,|VERB&gt; &lt;"I|PRON&gt; &lt;have|VERB&gt; &lt;(plenty)|ADJ&gt; &lt;meat|NOUN&gt; &lt;to|PART&gt; &lt;eat."|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Afterwards|ADV&gt; &lt;he|PRON&gt; &lt;met|VERB&gt; &lt;Anene,|PROPN&gt; &lt;the|DET&gt; &lt;Crow,|PROPN&gt; &lt;and|CONJ&gt; &lt;he|PRON&gt; &lt;said,|VERB&gt; &lt;"Let|VERB&gt; &lt;us|PRON&gt; &lt;go|VERB&gt; &lt;and|CONJ&gt; &lt;set|VERB&gt; &lt;fish-traps."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Crow|PROPN&gt; &lt;said,|VERB&gt; &lt;"I|PRON&gt; &lt;have|VERB&gt; &lt;heard."|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Now,|ADV&gt; &lt;the|DET&gt; &lt;Hawk|PROPN&gt; &lt;said|VERB&gt; &lt;to|PART&gt; &lt;the|DET&gt; &lt;Crow,|PROPN&gt; &lt;"About|PREP&gt; &lt;this|DET&gt; &lt;fish-trap-setting|ADJ&gt; &lt;expedition|NOUN&gt; &lt;on|PREP&gt; &lt;which|PRON&gt; &lt;you|PRON&gt; &lt;and|CONJ&gt; &lt;Ananse|PROPN&gt; &lt;are|VERB&gt; &lt;going,|VERB&gt; &lt;don't|VERB&gt; &lt;go,|VERB&gt; &lt;for|CONJ&gt; &lt;Ananse|PROPN&gt; &lt;says|VERB&gt; &lt;he|PRON&gt; &lt;is|VERB&gt; &lt;looking|VERB&gt; &lt;for|PREP&gt; &lt;a|DET&gt; &lt;fool,|NOUN&gt; &lt;that|CONJ&gt; &lt;when|ADV&gt; &lt;he|PRON&gt; &lt;and|CONJ&gt; &lt;the|DET&gt; &lt;fool|NOUN&gt; &lt;set|VERB&gt; &lt;fish-traps,|NOUN&gt; &lt;he|PRON&gt; &lt;will|VERB&gt; &lt;get|VERB&gt; &lt;all|DET&gt; &lt;the|DET&gt; &lt;money."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Crow|PROPN&gt; &lt;replied,|VERB&gt; &lt;"You|PRON&gt; &lt;need|VERB&gt; &lt;not|ADV&gt; &lt;say|VERB&gt; &lt;any|DET&gt; &lt;more,|ADV&gt; &lt;for|CONJ&gt; &lt;I|PRON&gt; &lt;will|VERB&gt; &lt;see|VERB&gt; &lt;to|PART&gt; &lt;it|PRON&gt; &lt;that|CONJ&gt; &lt;I|PRON&gt; &lt;get|VERB&gt; &lt;all|DET&gt; &lt;the|DET&gt; &lt;money."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Crow|PROPN&gt; &lt;and|CONJ&gt; &lt;the|DET&gt; &lt;Spider|PROPN&gt; &lt;set|VERB&gt; &lt;out|PART&gt; &lt;for|PREP&gt; &lt;the|DET&gt; &lt;bush|NOUN&gt; &lt;to|PART&gt; &lt;cut|VERB&gt; &lt;palm|NOUN&gt; &lt;branches.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Crow|PROPN&gt; &lt;said|VERB&gt; &lt;to|PART&gt; &lt;Ananse,|PROPN&gt; &lt;"Give|VERB&gt; &lt;me|PRON&gt; &lt;the|DET&gt; &lt;knife|NOUN&gt; &lt;and|CONJ&gt; &lt;I|PRON&gt; &lt;shall|VERB&gt; &lt;go|VERB&gt; &lt;and|CONJ&gt; &lt;cut|VERB&gt; &lt;(them),|PRON&gt; &lt;and|CONJ&gt; &lt;your|PRON&gt; &lt;work|NOUN&gt; &lt;will|VERB&gt; &lt;be|VERB&gt; &lt;to|PART&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;weariness|NOUN&gt; &lt;(resulting|VERB&gt; &lt;from|PREP&gt; &lt;my|PRON&gt; &lt;labour)."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Spider|PROPN&gt; &lt;replied,|VERB&gt; &lt;"Do|VERB&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;me|PRON&gt; &lt;for|PREP&gt; &lt;a|DET&gt; &lt;fool;|NOUN&gt; &lt;let|VERB&gt; &lt;me|PRON&gt; &lt;do|VERB&gt; &lt;the|DET&gt; &lt;cutting,|VERB&gt; &lt;while|CONJ&gt; &lt;you|PRON&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;weariness|NOUN&gt; &lt;thereof."|ADV&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;was|VERB&gt; &lt;cutting|VERB&gt; &lt;(the|DET&gt; &lt;palms)|NOUN&gt; &lt;while|CONJ&gt; &lt;Anene,|PROPN&gt; &lt;the|DET&gt; &lt;Crow,|PROPN&gt; &lt;sat|VERB&gt; &lt;there|ADV&gt; &lt;groaning.|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;When|ADV&gt; &lt;he|PRON&gt; &lt;had|VERB&gt; &lt;finished|VERB&gt; &lt;cutting|VERB&gt; &lt;(them),|PRON&gt; &lt;they|PRON&gt; &lt;tied|VERB&gt; &lt;them|PRON&gt; &lt;(in|PREP&gt; &lt;a|DET&gt; &lt;bundle).|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Crow|PROPN&gt; &lt;said,|VERB&gt; &lt;"Spider,|PROPN&gt; &lt;let|VERB&gt; &lt;me|PRON&gt; &lt;take|VERB&gt; &lt;and|CONJ&gt; &lt;carry|VERB&gt; &lt;them,|PRON&gt; &lt;while|CONJ&gt; &lt;you|PRON&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;weariness|NOUN&gt; &lt;thereof."|ADV&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Spider|PROPN&gt; &lt;replied,|VERB&gt; &lt;"Get|VERB&gt; &lt;out,|PART&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;me|PRON&gt; &lt;for|PREP&gt; &lt;a|DET&gt; &lt;fool?"|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;And|CONJ&gt; &lt;he|PRON&gt; &lt;took|VERB&gt; &lt;them|PRON&gt; &lt;and|CONJ&gt; &lt;placed|VERB&gt; &lt;them|PRON&gt; &lt;on|PREP&gt; &lt;his|PRON&gt; &lt;head.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Crow|PROPN&gt; &lt;followed|VERB&gt; &lt;behind|PREP&gt; &lt;and|CONJ&gt; &lt;he|PRON&gt; &lt;was|VERB&gt; &lt;groaning.|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;When|ADV&gt; &lt;they|PRON&gt; &lt;reached|VERB&gt; &lt;home,|NOUN&gt; &lt;the|DET&gt; &lt;Crow|PROPN&gt; &lt;said,|VERB&gt; &lt;"Let|VERB&gt; &lt;me|PRON&gt; &lt;make|VERB&gt; &lt;the|DET&gt; &lt;fish-traps|NOUN&gt; &lt;and|CONJ&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;weariness|NOUN&gt; &lt;of|PREP&gt; &lt;my|PRON&gt; &lt;labours."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;replied,|VERB&gt; &lt;"Never;|ADV&gt; &lt;let|VERB&gt; &lt;me|PRON&gt; &lt;make|VERB&gt; &lt;them|PRON&gt; &lt;and|CONJ&gt; &lt;do|VERB&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;weariness."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Then|ADV&gt; &lt;the|DET&gt; &lt;Crow|PROPN&gt; &lt;went|VERB&gt; &lt;and|CONJ&gt; &lt;reclined|VERB&gt; &lt;on|PREP&gt; &lt;his|PRON&gt; &lt;back,|NOUN&gt; &lt;and|CONJ&gt; &lt;he|PRON&gt; &lt;was|VERB&gt; &lt;groaning.|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;said,|VERB&gt; &lt;"Fool,|NOUN&gt; &lt;you|PRON&gt; &lt;say|VERB&gt; &lt;you|PRON&gt; &lt;have|VERB&gt; &lt;sense,|NOUN&gt; &lt;and|CONJ&gt; &lt;yet|ADV&gt; &lt;you|PRON&gt; &lt;are|VERB&gt; &lt;dying."|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Spider|PROPN&gt; &lt;completed|VERB&gt; &lt;the|DET&gt; &lt;fish-traps;|NOUN&gt; &lt;the|DET&gt; &lt;Crow|PROPN&gt; &lt;said,|VERB&gt; &lt;"Let|VERB&gt; &lt;me|PRON&gt; &lt;carry|VERB&gt; &lt;the|DET&gt; &lt;fish-traps|NOUN&gt; &lt;and|CONJ&gt; &lt;take|VERB&gt; &lt;them|PRON&gt; &lt;to|PREP&gt; &lt;the|DET&gt; &lt;water,|NOUN&gt; &lt;and|CONJ&gt; &lt;do|VERB&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;weariness|NOUN&gt; &lt;thereof."|ADV&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Spider|PROPN&gt; &lt;said,|VERB&gt; &lt;"No,|ADV&gt; &lt;I|PRON&gt; &lt;shall|VERB&gt; &lt;go|VERB&gt; &lt;with|PREP&gt; &lt;them,|PRON&gt; &lt;and|CONJ&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;weariness|NOUN&gt; &lt;thereof."|ADV&gt;</t>
+  </si>
+  <si>
+    <t>&lt;They|PRON&gt; &lt;reached|VERB&gt; &lt;the|DET&gt; &lt;water;|NOUN&gt; &lt;the|DET&gt; &lt;Crow|PROPN&gt; &lt;said,|VERB&gt; &lt;"Father|PROPN&gt; &lt;Spider,|PROPN&gt; &lt;there|ADV&gt; &lt;lives|VERB&gt; &lt;a|DET&gt; &lt;beast|NOUN&gt; &lt;in|PREP&gt; &lt;the|DET&gt; &lt;water,|NOUN&gt; &lt;so|CONJ&gt; &lt;let|VERB&gt; &lt;me|PRON&gt; &lt;stand|VERB&gt; &lt;in|PREP&gt; &lt;the|DET&gt; &lt;water|NOUN&gt; &lt;and|CONJ&gt; &lt;set|VERB&gt; &lt;the|DET&gt; &lt;fish-traps,|NOUN&gt; &lt;that|CONJ&gt; &lt;should|VERB&gt; &lt;the|DET&gt; &lt;beast|NOUN&gt; &lt;bite|VERB&gt; &lt;me,|PRON&gt; &lt;you|PRON&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;death|NOUN&gt; &lt;thereof."|ADV&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;said,|VERB&gt; &lt;"Ah,|INTJ&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;me|PRON&gt; &lt;for|PREP&gt; &lt;a|DET&gt; &lt;proper|ADJ&gt; &lt;fool;|NOUN&gt; &lt;I|PRON&gt; &lt;myself|PRON&gt; &lt;shall|VERB&gt; &lt;set|VERB&gt; &lt;the|DET&gt; &lt;traps,|NOUN&gt; &lt;and|CONJ&gt; &lt;if|CONJ&gt; &lt;he|PRON&gt; &lt;bites|VERB&gt; &lt;me,|PRON&gt; &lt;you|PRON&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;death|NOUN&gt; &lt;thereof."|ADV&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;took|VERB&gt; &lt;the|DET&gt; &lt;fish-traps|NOUN&gt; &lt;and|CONJ&gt; &lt;set|VERB&gt; &lt;them|PRON&gt; &lt;in|PREP&gt; &lt;the|DET&gt; &lt;water,|NOUN&gt; &lt;and|CONJ&gt; &lt;they|PRON&gt; &lt;came|VERB&gt; &lt;back|ADV&gt; &lt;home.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Next|ADV&gt; &lt;morning,|NOUN&gt; &lt;when|ADV&gt; &lt;things|NOUN&gt; &lt;became|VERB&gt; &lt;visible,|ADJ&gt; &lt;they|PRON&gt; &lt;went|VERB&gt; &lt;to|PART&gt; &lt;examine|VERB&gt; &lt;the|DET&gt; &lt;traps,|NOUN&gt; &lt;and|CONJ&gt; &lt;they|PRON&gt; &lt;had|VERB&gt; &lt;caught|VERB&gt; &lt;two|NUM&gt; &lt;fish.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Crow|PROPN&gt; &lt;said,|VERB&gt; &lt;"Spider,|PROPN&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;these|DET&gt; &lt;two,|NUM&gt; &lt;and|CONJ&gt; &lt;when|ADV&gt; &lt;to-morrow|NOUN&gt; &lt;we|PRON&gt; &lt;come,|VERB&gt; &lt;and|CONJ&gt; &lt;(the|DET&gt; &lt;traps)|NOUN&gt; &lt;have|VERB&gt; &lt;caught|VERB&gt; &lt;four,|NUM&gt; &lt;I|PRON&gt; &lt;in|PART&gt; &lt;turn|NOUN&gt; &lt;shall|VERB&gt; &lt;take|VERB&gt; &lt;them."|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Spider|PROPN&gt; &lt;replied,|VERB&gt; &lt;"This|DET&gt; &lt;fellow!|NOUN&gt; &lt;You|PRON&gt; &lt;take|VERB&gt; &lt;me|PRON&gt; &lt;for|PREP&gt; &lt;a|DET&gt; &lt;proper|ADJ&gt; &lt;fool;|NOUN&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;these|DET&gt; &lt;two,|NUM&gt; &lt;and|CONJ&gt; &lt;to-morrow,|NOUN&gt; &lt;I|PRON&gt; &lt;in|PART&gt; &lt;turn|NOUN&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;four."|NUM&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Crow|PROPN&gt; &lt;took|VERB&gt; &lt;them.|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Next|ADV&gt; &lt;morning|NOUN&gt; &lt;they|PRON&gt; &lt;went|VERB&gt; &lt;(again|ADV&gt; &lt;to|PART&gt; &lt;visit|VERB&gt; &lt;the|DET&gt; &lt;traps),|NOUN&gt; &lt;and|CONJ&gt; &lt;they|PRON&gt; &lt;got|VERB&gt; &lt;out|PART&gt; &lt;four|NUM&gt; &lt;(fish).|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Crow|PROPN&gt; &lt;said,|VERB&gt; &lt;"You|PRON&gt; &lt;take|VERB&gt; &lt;these|DET&gt; &lt;four,|NUM&gt; &lt;and|CONJ&gt; &lt;when|ADV&gt; &lt;to-morrow|NOUN&gt; &lt;we|PRON&gt; &lt;come|VERB&gt; &lt;and|CONJ&gt; &lt;have|VERB&gt; &lt;caught|VERB&gt; &lt;eight,|NUM&gt; &lt;I|PRON&gt; &lt;in|PART&gt; &lt;turn|NOUN&gt; &lt;shall|VERB&gt; &lt;take|VERB&gt; &lt;them."|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Spider|PROPN&gt; &lt;replied,|VERB&gt; &lt;"You|PRON&gt; &lt;take|VERB&gt; &lt;me|PRON&gt; &lt;for|PREP&gt; &lt;a|DET&gt; &lt;fool;|NOUN&gt; &lt;you|PRON&gt; &lt;have|VERB&gt; &lt;these|DET&gt; &lt;four,|NUM&gt; &lt;and|CONJ&gt; &lt;tomorrow|NOUN&gt; &lt;I,|PRON&gt; &lt;too,|ADV&gt; &lt;shall|VERB&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;eight."|NUM&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Next|ADV&gt; &lt;morning|NOUN&gt; &lt;they|PRON&gt; &lt;went|VERB&gt; &lt;(to|PART&gt; &lt;visit|VERB&gt; &lt;the|DET&gt; &lt;traps)|NOUN&gt; &lt;and|CONJ&gt; &lt;got|VERB&gt; &lt;out|PART&gt; &lt;eight.|NUM&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Crow|PROPN&gt; &lt;said,|VERB&gt; &lt;"Take|VERB&gt; &lt;(them),|PRON&gt; &lt;and|CONJ&gt; &lt;to-morrow|NOUN&gt; &lt;I,|PRON&gt; &lt;too,|ADV&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;sixteen."|NUM&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Spider|PROPN&gt; &lt;said,|VERB&gt; &lt;"You|PRON&gt; &lt;take|VERB&gt; &lt;me|PRON&gt; &lt;for|PREP&gt; &lt;a|DET&gt; &lt;fool;|NOUN&gt; &lt;do|VERB&gt; &lt;you|PRON&gt; &lt;take-the|VERB&gt; &lt;eight,|NUM&gt; &lt;and|CONJ&gt; &lt;to-morrow|NOUN&gt; &lt;I|PRON&gt; &lt;shall|VERB&gt; &lt;have|VERB&gt; &lt;the|DET&gt; &lt;sixteen."|NUM&gt;</t>
+  </si>
+  <si>
+    <t>&lt;By|PREP&gt; &lt;now|ADV&gt; &lt;the|DET&gt; &lt;fish-traps|NOUN&gt; &lt;have|VERB&gt; &lt;become|VERB&gt; &lt;worn|ADJ&gt; &lt;out,|ADV&gt; &lt;and|CONJ&gt; &lt;the|DET&gt; &lt;Crow|PROPN&gt; &lt;addressed|VERB&gt; &lt;the|DET&gt; &lt;Spider,|PROPN&gt; &lt;saying,|VERB&gt; &lt;"Go|VERB&gt; &lt;and|CONJ&gt; &lt;fetch|VERB&gt; &lt;these|DET&gt; &lt;rotten|ADJ&gt; &lt;fish-traps,|NOUN&gt; &lt;and|CONJ&gt; &lt;when|ADV&gt; &lt;one|PRON&gt; &lt;sells|VERB&gt; &lt;them,|PRON&gt; &lt;one|PRON&gt; &lt;will|VERB&gt; &lt;get|VERB&gt; &lt;ntanu|NOUN&gt; &lt;(i.e.|NOUN&gt; &lt;(£16)|NUM&gt; &lt;for|PREP&gt; &lt;each|DET&gt; &lt;single|ADJ&gt; &lt;(trap),|NOUN&gt; &lt;so|CONJ&gt; &lt;do|VERB&gt; &lt;you,|PRON&gt; &lt;Father|PROPN&gt; &lt;Spider,|PROPN&gt; &lt;take|VERB&gt; &lt;these|DET&gt; &lt;fish,|NOUN&gt; &lt;and|CONJ&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;rotten|ADJ&gt; &lt;fish-traps|NOUN&gt; &lt;and|CONJ&gt; &lt;give|VERB&gt; &lt;them|PRON&gt; &lt;to|PREP&gt; &lt;me."|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Spider|PROPN&gt; &lt;said,|VERB&gt; &lt;"No,|ADV&gt; &lt;do|VERB&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;fish|NOUN&gt; &lt;and|CONJ&gt; &lt;go|VERB&gt; &lt;and|CONJ&gt; &lt;sell|VERB&gt; &lt;them,|PRON&gt; &lt;and|CONJ&gt; &lt;I|PRON&gt; &lt;shall|VERB&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;rotten|ADJ&gt; &lt;fish-traps|NOUN&gt; &lt;and|CONJ&gt; &lt;take|VERB&gt; &lt;(the|DET&gt; &lt;proceeds).|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;They|PRON&gt; &lt;carried|VERB&gt; &lt;(their|PRON&gt; &lt;things)|NOUN&gt; &lt;off|ADV&gt; &lt;to|PREP&gt; &lt;a|DET&gt; &lt;market.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Immediately|ADV&gt; &lt;the|DET&gt; &lt;Crow|PROPN&gt; &lt;had|VERB&gt; &lt;disposed|VERB&gt; &lt;of|PREP&gt; &lt;all|DET&gt; &lt;his|PRON&gt; &lt;goods;|NOUN&gt; &lt;he|PRON&gt; &lt;got|VERB&gt; &lt;much|ADJ&gt; &lt;gold|NOUN&gt; &lt;dust.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;But|CONJ&gt; &lt;there|ADV&gt; &lt;remained|VERB&gt; &lt;the|DET&gt; &lt;Spider's|PROPN&gt; &lt;(goods).|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Then|ADV&gt; &lt;the|DET&gt; &lt;Crow|PROPN&gt; &lt;said|VERB&gt; &lt;to|PREP&gt; &lt;him,|PRON&gt; &lt;"Take|VERB&gt; &lt;these|DET&gt; &lt;rotten|ADJ&gt; &lt;fish-traps|NOUN&gt; &lt;and|CONJ&gt; &lt;hawk|VERB&gt; &lt;them|PRON&gt; &lt;round|ADV&gt; &lt;and|CONJ&gt; &lt;they|PRON&gt; &lt;will|VERB&gt; &lt;buy|VERB&gt; &lt;them."|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Spider|PROPN&gt; &lt;lifted|VERB&gt; &lt;them|PRON&gt; &lt;up;|ADV&gt; &lt;he|PRON&gt; &lt;said,|VERB&gt; &lt;"I|PRON&gt; &lt;am|VERB&gt; &lt;selling|VERB&gt; &lt;rotten|ADJ&gt; &lt;fish-traps!|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Now|ADV&gt; &lt;the|DET&gt; &lt;head-man|NOUN&gt; &lt;of|PREP&gt; &lt;the|DET&gt; &lt;village|NOUN&gt; &lt;heard|VERB&gt; &lt;(him),|PRON&gt; &lt;and|CONJ&gt; &lt;he|PRON&gt; &lt;said,|VERB&gt; &lt;"Where|ADV&gt; &lt;does|VERB&gt; &lt;this|DET&gt; &lt;fellow|NOUN&gt; &lt;come|VERB&gt; &lt;from;|PREP&gt; &lt;go|VERB&gt; &lt;and|CONJ&gt; &lt;call|VERB&gt; &lt;him|PRON&gt; &lt;to|PREP&gt; &lt;come."|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Spider|PROPN&gt; &lt;went.|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;head-man|NOUN&gt; &lt;said,|VERB&gt; &lt;"Do|VERB&gt; &lt;you|PRON&gt; &lt;suppose|VERB&gt; &lt;that|CONJ&gt; &lt;we|PRON&gt; &lt;folk|NOUN&gt; &lt;in|PREP&gt; &lt;the|DET&gt; &lt;village|NOUN&gt; &lt;here|ADV&gt; &lt;are|VERB&gt; &lt;fools;|NOUN&gt; &lt;now|ADV&gt; &lt;your|PRON&gt; &lt;friend|NOUN&gt; &lt;(here)|PRON&gt; &lt;came|VERB&gt; &lt;and|CONJ&gt; &lt;sold|VERB&gt; &lt;fish|NOUN&gt; &lt;(with|PREP&gt; &lt;profit),|NOUN&gt; &lt;have|VERB&gt; &lt;you|PRON&gt; &lt;not|ADV&gt; &lt;noticed|VERB&gt; &lt;him,|PRON&gt; &lt;but|CONJ&gt; &lt;you|PRON&gt; &lt;would|VERB&gt; &lt;dispose|VERB&gt; &lt;of|PREP&gt; &lt;rotten|ADJ&gt; &lt;fish-traps|NOUN&gt; &lt;to|PREP&gt; &lt;us?"|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;head-man|NOUN&gt; &lt;said,|VERB&gt; &lt;"Flog|VERB&gt; &lt;him."|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;So|ADV&gt; &lt;they|PRON&gt; &lt;beat|VERB&gt; &lt;him.|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Then|ADV&gt; &lt;the|DET&gt; &lt;Crow|PROPN&gt; &lt;said,|VERB&gt; &lt;"Spider,|PROPN&gt; &lt;you|PRON&gt; &lt;have|VERB&gt; &lt;seen,|VERB&gt; &lt;your|PRON&gt; &lt;eyes|NOUN&gt; &lt;are|VERB&gt; &lt;dead|ADJ&gt; &lt;for|PREP&gt; &lt;shame;|NOUN&gt; &lt;you|PRON&gt; &lt;said|VERB&gt; &lt;you|PRON&gt; &lt;were|VERB&gt; &lt;going|VERB&gt; &lt;in|PREP&gt; &lt;search|NOUN&gt; &lt;of|PREP&gt; &lt;a|DET&gt; &lt;fool|NOUN&gt; &lt;to|PREP&gt; &lt;work|VERB&gt; &lt;with|PREP&gt; &lt;you,|PRON&gt; &lt;and|CONJ&gt; &lt;you|PRON&gt; &lt;have|VERB&gt; &lt;(now)|ADV&gt; &lt;perceived|VERB&gt; &lt;that|CONJ&gt; &lt;you|PRON&gt; &lt;yourself|PRON&gt; &lt;were|VERB&gt; &lt;the|DET&gt; &lt;fool."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;This,|DET&gt; &lt;my|PRON&gt; &lt;story,|NOUN&gt; &lt;which|PRON&gt; &lt;I|PRON&gt; &lt;have|VERB&gt; &lt;related,|VERB&gt; &lt;if|CONJ&gt; &lt;it|PRON&gt; &lt;be|VERB&gt; &lt;sweet,|ADJ&gt; &lt;(or)|CONJ&gt; &lt;if|CONJ&gt; &lt;it|PRON&gt; &lt;be|VERB&gt; &lt;not|ADV&gt; &lt;sweet,|ADJ&gt; &lt;take|VERB&gt; &lt;some|DET&gt; &lt;elsewhere,|ADV&gt; &lt;and|CONJ&gt; &lt;let|VERB&gt; &lt;some|DET&gt; &lt;come|VERB&gt; &lt;back|ADV&gt; &lt;to|PREP&gt; &lt;me.|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Speak|VERB&gt;, &lt;do|VERB&gt; &lt;not|ADV&gt; &lt;say|VERB&gt;, &lt;do|VERB&gt; &lt;not|ADV&gt; &lt;say|VERB&gt;, &lt;oh|INTJ&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;said|VERB&gt; &lt;he|PRON&gt; &lt;is|VERB&gt; &lt;looking|VERB&gt; &lt;for|PREP&gt; &lt;a|DET&gt; &lt;fool|NOUN&gt;, &lt;but|CONJ&gt; &lt;he|PRON&gt; &lt;himself|PRON&gt; &lt;is|VERB&gt; &lt;the|DET&gt; &lt;fool|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;was|VERB&gt; &lt;sitting|VERB&gt; &lt;there|ADV&gt;, &lt;he|PRON&gt; &lt;said|VERB&gt; &lt;he|PRON&gt; &lt;wanted|VERB&gt; &lt;a|DET&gt; &lt;fool|NOUN&gt; &lt;to|PREP&gt; &lt;help|VERB&gt; &lt;him|PRON&gt; &lt;set|VERB&gt; &lt;fish|NOUN&gt; &lt;traps|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Walking|VERB&gt;, &lt;walking|VERB&gt;, &lt;walking|VERB&gt;, &lt;he|PRON&gt; &lt;found|VERB&gt; &lt;none|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Then|ADV&gt; &lt;he|PRON&gt; &lt;met|VERB&gt; &lt;Osansa|PROPN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;He|PRON&gt; &lt;said|VERB&gt;, &lt;"Let|VERB&gt; &lt;us|PRON&gt; &lt;go|VERB&gt; &lt;and|CONJ&gt; &lt;set|VERB&gt; &lt;traps|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Osansa|PROPN&gt; &lt;said|VERB&gt;, &lt;"I|PRON&gt; &lt;have|VERB&gt; &lt;meat|NOUN&gt; &lt;to|PREP&gt; &lt;eat|VERB&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Later|ADV&gt;, &lt;he|PRON&gt; &lt;met|VERB&gt; &lt;Anene|PROPN&gt;, &lt;and|CONJ&gt; &lt;he|PRON&gt; &lt;said|VERB&gt;, &lt;"Let|VERB&gt; &lt;us|PRON&gt; &lt;go|VERB&gt; &lt;and|CONJ&gt; &lt;set|VERB&gt; &lt;traps|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Anene|PROPN&gt; &lt;said|VERB&gt;, &lt;"I|PRON&gt; &lt;have|VERB&gt; &lt;heard|VERB&gt; &lt;you|PRON&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Then|ADV&gt; &lt;Osansa|PROPN&gt; &lt;told|VERB&gt; &lt;Anene|PROPN&gt;, &lt;"The|DET&gt; &lt;trap|NOUN&gt; &lt;you|PRON&gt; &lt;and|CONJ&gt; &lt;Ananse|PROPN&gt; &lt;will|VERB&gt; &lt;set|VERB&gt;, &lt;go|VERB&gt;, &lt;Ananse|PROPN&gt; &lt;says|VERB&gt; &lt;he|PRON&gt; &lt;wants|VERB&gt; &lt;a|DET&gt; &lt;fool|NOUN&gt;, &lt;and|CONJ&gt; &lt;when|CONJ&gt; &lt;you|PRON&gt; &lt;and|CONJ&gt; &lt;he|PRON&gt; &lt;set|VERB&gt; &lt;the|DET&gt; &lt;traps|NOUN&gt;, &lt;he|PRON&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;all|DET&gt; &lt;the|DET&gt; &lt;money|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Anene|PROPN&gt; &lt;said|VERB&gt;, &lt;"You|PRON&gt; &lt;leave|VERB&gt; &lt;that|DET&gt;; &lt;I|PRON&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;all|DET&gt; &lt;the|DET&gt; &lt;money|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Anene|PROPN&gt; &lt;and|CONJ&gt; &lt;Ananse|PROPN&gt; &lt;went|VERB&gt; &lt;into|PREP&gt; &lt;the|DET&gt; &lt;forest|NOUN&gt; &lt;to|PREP&gt; &lt;cut|VERB&gt; &lt;palm|NOUN&gt; &lt;branches|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Anene|PROPN&gt; &lt;told|VERB&gt; &lt;Ananse|PROPN&gt;, &lt;"Give|VERB&gt; &lt;me|PRON&gt; &lt;the|DET&gt; &lt;knife|NOUN&gt; &lt;to|PREP&gt; &lt;cut|VERB&gt;, &lt;and|CONJ&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;load|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;said|VERB&gt;, &lt;"You|PRON&gt; &lt;call|VERB&gt; &lt;me|PRON&gt; &lt;the|DET&gt; &lt;fool|NOUN&gt;? &lt;Let|VERB&gt; &lt;me|PRON&gt; &lt;cut|VERB&gt;, &lt;and|CONJ&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;load|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;cut|VERB&gt; &lt;while|CONJ&gt; &lt;Anene|PROPN&gt; &lt;sat|VERB&gt; &lt;there|ADV&gt; &lt;and|CONJ&gt; &lt;refused|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;When|CONJ&gt; &lt;cutting|VERB&gt; &lt;was|VERB&gt; &lt;done|VERB&gt;, &lt;they|PRON&gt; &lt;were|VERB&gt; &lt;arranging|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Anene|PROPN&gt; &lt;said|VERB&gt;, &lt;"Ananse|PROPN&gt;, &lt;let|VERB&gt; &lt;me|PRON&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;traps|NOUN&gt;, &lt;and|CONJ&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;load|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;said|VERB&gt;, &lt;"Why|ADV&gt; &lt;do|VERB&gt; &lt;you|PRON&gt; &lt;call|VERB&gt; &lt;me|PRON&gt; &lt;the|DET&gt; &lt;fool|NOUN&gt;?"</t>
+  </si>
+  <si>
+    <t>&lt;He|PRON&gt; &lt;took|VERB&gt; &lt;the|DET&gt; &lt;bundle|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Anene|PROPN&gt; &lt;followed|VERB&gt; &lt;behind|ADV&gt; &lt;while|CONJ&gt; &lt;he|PRON&gt; &lt;refused|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;When|ADV&gt; &lt;they|PRON&gt; &lt;arrived|VERB&gt; &lt;home|NOUN&gt;, &lt;Anene|PROPN&gt; &lt;said|VERB&gt;, &lt;"Let|VERB&gt; &lt;me|PRON&gt; &lt;carry|VERB&gt; &lt;the|DET&gt; &lt;traps|NOUN&gt;, &lt;and|CONJ&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;load|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;said|VERB&gt;, &lt;"Never|ADV&gt;, &lt;give|VERB&gt; &lt;it|PRON&gt; &lt;to|PREP&gt; &lt;me|PRON&gt;, &lt;and|CONJ&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;load|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Then|ADV&gt; &lt;Anene|PROPN&gt; &lt;sat|VERB&gt; &lt;quietly|ADV&gt; &lt;and|CONJ&gt; &lt;refused|VERB&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;said|VERB&gt;, &lt;"Fool|NOUN&gt;, &lt;you|PRON&gt; &lt;claim|VERB&gt; &lt;to|PREP&gt; &lt;be|VERB&gt; &lt;wise|ADJ&gt;, &lt;but|CONJ&gt; &lt;you|PRON&gt; &lt;will|VERB&gt; &lt;die|VERB&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;After|PREP&gt; &lt;finishing|VERB&gt; &lt;the|DET&gt; &lt;traps|NOUN&gt;, &lt;Anene|PROPN&gt; &lt;said|VERB&gt;, &lt;"Let|VERB&gt; &lt;me|PRON&gt; &lt;carry|VERB&gt; &lt;the|DET&gt; &lt;traps|NOUN&gt; &lt;to|PREP&gt; &lt;the|DET&gt; &lt;river|NOUN&gt;, &lt;and|CONJ&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;load|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;said|VERB&gt;, &lt;"Never|ADV&gt;, &lt;I|PRON&gt; &lt;will|VERB&gt; &lt;go|VERB&gt; &lt;with|PREP&gt; &lt;them|PRON&gt;, &lt;and|CONJ&gt; &lt;you|PRON&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;load|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;They|PRON&gt; &lt;reached|VERB&gt; &lt;the|DET&gt; &lt;river|NOUN&gt;, &lt;and|CONJ&gt; &lt;Anene|PROPN&gt; &lt;said|VERB&gt;, &lt;"Father|NOUN&gt; &lt;Ananse|PROPN&gt;, &lt;there|ADV&gt; &lt;is|VERB&gt; &lt;a|DET&gt; &lt;beast|NOUN&gt; &lt;in|PREP&gt; &lt;the|DET&gt; &lt;water|NOUN&gt;; &lt;let|VERB&gt; &lt;me|PRON&gt; &lt;stand|VERB&gt; &lt;in|PREP&gt; &lt;the|DET&gt; &lt;water|NOUN&gt; &lt;and|CONJ&gt; &lt;set|VERB&gt; &lt;the|DET&gt; &lt;traps|NOUN&gt;. &lt;If|CONJ&gt; &lt;the|DET&gt; &lt;beast|NOUN&gt; &lt;bites|VERB&gt; &lt;me|PRON&gt;, &lt;you|PRON&gt; &lt;will|VERB&gt; &lt;bear|VERB&gt; &lt;my|PRON&gt; &lt;death|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;said|VERB&gt;, &lt;"Ah|INTJ&gt;! &lt;You|PRON&gt; &lt;truly|ADV&gt; &lt;think|VERB&gt; &lt;I|PRON&gt; &lt;am|VERB&gt; &lt;a|DET&gt; &lt;fool|NOUN&gt;. &lt;I|PRON&gt; &lt;will|VERB&gt; &lt;go|VERB&gt; &lt;and|CONJ&gt; &lt;set|VERB&gt; &lt;the|DET&gt; &lt;traps|NOUN&gt;, &lt;and|CONJ&gt; &lt;if|CONJ&gt; &lt;the|DET&gt; &lt;beast|NOUN&gt; &lt;bites|VERB&gt; &lt;me|PRON&gt;, &lt;you|PRON&gt; &lt;will|VERB&gt; &lt;bear|VERB&gt; &lt;my|PRON&gt; &lt;death|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;set|VERB&gt; &lt;the|DET&gt; &lt;traps|NOUN&gt; &lt;and|CONJ&gt; &lt;returned|VERB&gt; &lt;home|NOUN&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Early|ADV&gt; &lt;the|DET&gt; &lt;next|ADJ&gt; &lt;morning|NOUN&gt;, &lt;they|PRON&gt; &lt;went|VERB&gt; &lt;to|PREP&gt; &lt;inspect|VERB&gt; &lt;the|DET&gt; &lt;traps|NOUN&gt; &lt;and|CONJ&gt; &lt;discussed|VERB&gt; &lt;two|NUM&gt; &lt;ideas|NOUN&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Anene|PROPN&gt; &lt;said|VERB&gt;, &lt;"Ananse|PROPN&gt;, &lt;take|VERB&gt; &lt;the|DET&gt; &lt;two|NUM&gt; &lt;today|ADV&gt;, &lt;and|CONJ&gt; &lt;tomorrow|ADV&gt; &lt;we|PRON&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;four|NUM&gt;, &lt;then|ADV&gt; &lt;I|PRON&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;them|PRON&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;said|VERB&gt;, &lt;"Ah|INTJ&gt;! &lt;This|DET&gt; &lt;servant|NOUN&gt; &lt;thinks|VERB&gt; &lt;I|PRON&gt; &lt;am|VERB&gt; &lt;a|DET&gt; &lt;fool|NOUN&gt;; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;two|NUM&gt;, &lt;and|CONJ&gt; &lt;tomorrow|ADV&gt; &lt;I|PRON&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;four|NUM&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Anene|PROPN&gt; &lt;agreed|VERB&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;next|ADJ&gt; &lt;morning|NOUN&gt;, &lt;they|PRON&gt; &lt;went|VERB&gt; &lt;and|CONJ&gt; &lt;took|VERB&gt; &lt;the|DET&gt; &lt;four|NUM&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Anene|PROPN&gt; &lt;said|VERB&gt;, &lt;"Take|VERB&gt; &lt;the|DET&gt; &lt;four|NUM&gt; &lt;today|ADV&gt;, &lt;and|CONJ&gt; &lt;tomorrow|ADV&gt; &lt;we|PRON&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;eight|NUM&gt;, &lt;then|ADV&gt; &lt;I|PRON&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;them|PRON&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;said|VERB&gt;, &lt;"You|PRON&gt; &lt;think|VERB&gt; &lt;I|PRON&gt; &lt;am|VERB&gt; &lt;a|DET&gt; &lt;fool|NOUN&gt;; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;four|NUM&gt;, &lt;and|CONJ&gt; &lt;tomorrow|ADV&gt; &lt;I|PRON&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;eight|NUM&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Early|ADV&gt; &lt;the|DET&gt; &lt;next|ADJ&gt; &lt;morning|NOUN&gt;, &lt;they|PRON&gt; &lt;went|VERB&gt; &lt;and|CONJ&gt; &lt;took|VERB&gt; &lt;the|DET&gt; &lt;eight|NUM&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Anene|PROPN&gt; &lt;said|VERB&gt;, &lt;"Take|VERB&gt; &lt;them|PRON&gt;, &lt;and|CONJ&gt; &lt;tomorrow|ADV&gt; &lt;I|PRON&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;twelve|NUM&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;said|VERB&gt;, &lt;"I|PRON&gt; &lt;am|VERB&gt; &lt;not|ADV&gt; &lt;the|DET&gt; &lt;fool|NOUN&gt;; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;eight|NUM&gt;, &lt;and|CONJ&gt; &lt;tomorrow|ADV&gt; &lt;I|PRON&gt; &lt;will|VERB&gt; &lt;take|VERB&gt; &lt;the|DET&gt; &lt;twelve|NUM&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Then|ADV&gt; &lt;the|DET&gt; &lt;traps|NOUN&gt; &lt;were|VERB&gt; &lt;finished|VERB&gt;, &lt;and|CONJ&gt; &lt;Anene|PROPN&gt; &lt;told|VERB&gt; &lt;Ananse|PROPN&gt;, &lt;"Take|VERB&gt; &lt;the|DET&gt; &lt;spoiled|ADJ&gt; &lt;traps|NOUN&gt;, &lt;go|VERB&gt; &lt;sell|VERB&gt; &lt;them|PRON&gt;, &lt;and|CONJ&gt; &lt;bring|VERB&gt; &lt;the|DET&gt; &lt;money|NOUN&gt;. &lt;If|CONJ&gt; &lt;you|PRON&gt; &lt;lose|VERB&gt; &lt;anything|PRON&gt;, &lt;Father|NOUN&gt; &lt;Ananse|PROPN&gt;, &lt;use|VERB&gt; &lt;your|PRON&gt; &lt;mind|NOUN&gt; &lt;and|CONJ&gt; &lt;bring|VERB&gt; &lt;the|DET&gt; &lt;spoiled|ADJ&gt; &lt;traps|NOUN&gt; &lt;to|PREP&gt; &lt;me|PRON&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;said|VERB&gt;, &lt;"No|ADV&gt;, &lt;you|PRON&gt; &lt;go|VERB&gt; &lt;sell|VERB&gt; &lt;the|DET&gt; &lt;intelligence|NOUN&gt;, &lt;and|CONJ&gt; &lt;I|PRON&gt; &lt;will|VERB&gt; &lt;go|VERB&gt; &lt;sell|VERB&gt; &lt;the|DET&gt; &lt;spoiled|ADJ&gt; &lt;traps|NOUN&gt; &lt;and|CONJ&gt; &lt;take|VERB&gt; &lt;my|PRON&gt; &lt;share|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;They|PRON&gt; &lt;continued|VERB&gt; &lt;the|DET&gt; &lt;journey|NOUN&gt; &lt;to|PREP&gt; &lt;the|DET&gt; &lt;market|NOUN&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Now|ADV&gt; &lt;Anene|PROPN&gt; &lt;sold|VERB&gt; &lt;everything|PRON&gt;; &lt;he|PRON&gt; &lt;got|VERB&gt; &lt;a|DET&gt; &lt;lot|NOUN&gt; &lt;of|PREP&gt; &lt;money|NOUN&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Then|ADV&gt; &lt;it|PRON&gt; &lt;was|VERB&gt; &lt;left|VERB&gt; &lt;for|PREP&gt; &lt;Ananse|PROPN&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Then|ADV&gt; &lt;Anene|PROPN&gt; &lt;said|VERB&gt; &lt;to|PREP&gt; &lt;him|PRON&gt;, &lt;"Take|VERB&gt; &lt;these|DET&gt; &lt;spoiled|ADJ&gt; &lt;traps|NOUN&gt; &lt;to|PREP&gt; &lt;the|DET&gt; &lt;market|NOUN&gt;, &lt;and|CONJ&gt; &lt;they|PRON&gt; &lt;will|VERB&gt; &lt;buy|VERB&gt; &lt;them|PRON&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;agreed|VERB&gt; &lt;and|CONJ&gt; &lt;said|VERB&gt;, &lt;"I|PRON&gt; &lt;will|VERB&gt; &lt;sell|VERB&gt; &lt;the|DET&gt; &lt;spoiled|ADJ&gt; &lt;traps|NOUN&gt;!"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Then|ADV&gt; &lt;a|DET&gt; &lt;chief|NOUN&gt; &lt;saw|VERB&gt; &lt;and|CONJ&gt; &lt;said|VERB&gt;, &lt;"Where|ADV&gt; &lt;is|VERB&gt; &lt;this|DET&gt; &lt;servant|NOUN&gt; &lt;from|PREP&gt;? &lt;Call|VERB&gt; &lt;him|PRON&gt; &lt;to|PREP&gt; &lt;come|VERB&gt; &lt;here|ADV&gt;!"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;went|VERB&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;chief|NOUN&gt; &lt;said|VERB&gt;, &lt;"Do|AUX&gt; &lt;you|PRON&gt; &lt;believe|VERB&gt; &lt;that|CONJ&gt; &lt;in|PREP&gt; &lt;this|DET&gt; &lt;town|NOUN&gt; &lt;we|PRON&gt; &lt;are|VERB&gt; &lt;fools|NOUN&gt;; &lt;your|PRON&gt; &lt;friend|NOUN&gt; &lt;sold|VERB&gt; &lt;intelligence|NOUN&gt;, &lt;and|CONJ&gt; &lt;you|PRON&gt; &lt;did|AUX&gt; &lt;not|ADV&gt; &lt;see|VERB&gt;, &lt;and|CONJ&gt; &lt;now|ADV&gt; &lt;you|PRON&gt; &lt;are|VERB&gt; &lt;selling|VERB&gt; &lt;spoiled|ADJ&gt; &lt;traps|NOUN&gt; &lt;to|PREP&gt; &lt;us|PRON&gt;?"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;chief|NOUN&gt; &lt;said|VERB&gt;, &lt;"Punish|VERB&gt; &lt;him|PRON&gt;!"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Then|ADV&gt; &lt;they|PRON&gt; &lt;punished|VERB&gt; &lt;him|PRON&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Then|ADV&gt; &lt;Anene|PROPN&gt; &lt;said|VERB&gt;, &lt;"Ananse|PROPN&gt;, &lt;you|PRON&gt; &lt;have|VERB&gt; &lt;seen|VERB&gt;, &lt;and|CONJ&gt; &lt;your|PRON&gt; &lt;eyes|NOUN&gt; &lt;have|VERB&gt; &lt;died|VERB&gt;; &lt;you|PRON&gt; &lt;said|VERB&gt; &lt;you|PRON&gt; &lt;wanted|VERB&gt; &lt;a|DET&gt; &lt;fool|NOUN&gt; &lt;to|PREP&gt; &lt;work|VERB&gt; &lt;for|PREP&gt; &lt;you|PRON&gt;, &lt;and|CONJ&gt; &lt;you|PRON&gt; &lt;have|VERB&gt; &lt;seen|VERB&gt; &lt;that|CONJ&gt; &lt;you|PRON&gt; &lt;are|VERB&gt; &lt;the|DET&gt; &lt;fool|NOUN&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;The|DET&gt; &lt;Ananse|PROPN&gt; &lt;story|NOUN&gt; &lt;I|PRON&gt; &lt;am|VERB&gt; &lt;telling|VERB&gt;, &lt;if|CONJ&gt; &lt;it|PRON&gt; &lt;is|VERB&gt; &lt;good|ADJ&gt;, &lt;take|VERB&gt; &lt;some|DET&gt; &lt;and|CONJ&gt; &lt;come|VERB&gt;; &lt;if|CONJ&gt; &lt;it|PRON&gt; &lt;is|VERB&gt; &lt;not|ADV&gt; &lt;good|ADJ&gt;, &lt;take|VERB&gt; &lt;some|DET&gt; &lt;and|CONJ&gt; &lt;return|VERB&gt;."&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Y?nka|VERB&gt; &lt;nokware,|NOUN&gt; &lt;y?nka|VERB&gt; &lt;nokware,|NOUN&gt; &lt;s?|PART&gt; &lt;de?|CONJ&gt; &lt;y?b?ka|VERB&gt; &lt;no|PRON&gt; &lt;ny?|VERB&gt; &lt;nokware.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse,|PROPN&gt; &lt;?k?t?|VERB&gt; &lt;no,|PRON&gt; &lt;kae|VERB&gt; &lt;s?|PART&gt; &lt;?rek?hwehw?|VERB&gt; &lt;kwasea,|NOUN&gt; &lt;nanso|CONJ&gt; &lt;?no|PRON&gt; &lt;ara|ADV&gt; &lt;na|CONJ&gt; &lt;?y?|VERB&gt; &lt;kwasea.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse,|PROPN&gt; &lt;?k?t?|VERB&gt; &lt;no,|PRON&gt; &lt;na|CONJ&gt; &lt;?te|VERB&gt; &lt;h?,|NOUN&gt; &lt;na|CONJ&gt; &lt;?kae|VERB&gt; &lt;s?|PART&gt; &lt;?p?|VERB&gt; &lt;kwasea|NOUN&gt; &lt;bi|DET&gt; &lt;a|PART&gt; &lt;?ne|PRON&gt; &lt;no|PRON&gt; &lt;b?k?si|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?k??|PRON&gt; &lt;baabiara|ADV&gt; &lt;nanso|CONJ&gt; &lt;?nhunuu|VERB&gt; &lt;obiara.|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?nna|CONJ&gt; &lt;?hyiaa|VERB&gt; &lt;Osansa,|PROPN&gt; &lt;?k?k?r?|VERB&gt; &lt;no.|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?kae,|VERB&gt; &lt;"Momma|PRON&gt; &lt;y?nk?|PRON&gt; &lt;si|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?k?k?r?|VERB&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Me|PRON&gt; &lt;w?|VERB&gt; &lt;nam|NOUN&gt; &lt;bebree|NOUN&gt; &lt;a|PART&gt; &lt;me|PRON&gt; &lt;di."|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Akyiri|ADV&gt; &lt;no,|PRON&gt; &lt;?hyiaa|VERB&gt; &lt;Anene,|PROPN&gt; &lt;K?k??|PROPN&gt; &lt;no,|PRON&gt; &lt;na|CONJ&gt; &lt;?kae,|VERB&gt; &lt;"Momma|PRON&gt; &lt;y?nk?|PRON&gt; &lt;si|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;K?k??|PROPN&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Mate|VERB&gt; &lt;wo|PRON&gt; &lt;as?m."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?nna|CONJ&gt; &lt;?k?k?r?|VERB&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;kyer??|VERB&gt; &lt;K?k??|PROPN&gt; &lt;no,|PRON&gt; &lt;"?kwan|NOUN&gt; &lt;a|PART&gt; &lt;wo|PRON&gt; &lt;ne|PRON&gt; &lt;Ananse|PROPN&gt; &lt;rek?si|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;no,|PRON&gt; &lt;mfa|VERB&gt; &lt;ho.|NOUN&gt; &lt;Ananse|PROPN&gt; &lt;kae|VERB&gt; &lt;s?|PART&gt; &lt;?rek?hwehw?|VERB&gt; &lt;kwasea,|NOUN&gt; &lt;na|CONJ&gt; &lt;s?|PART&gt; &lt;?ne|PRON&gt; &lt;kwasea|NOUN&gt; &lt;no|PRON&gt; &lt;si|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;no,|PRON&gt; &lt;na|CONJ&gt; &lt;?b?gye|VERB&gt; &lt;sika|NOUN&gt; &lt;no|PRON&gt; &lt;nyinaa."|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;K?k??|PROPN&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Nka|VERB&gt; &lt;bio.|ADV&gt; &lt;Mehw?|VERB&gt; &lt;a|PART&gt; &lt;me|PRON&gt; &lt;na|CONJ&gt; &lt;m?gye|VERB&gt; &lt;sika|NOUN&gt; &lt;no|PRON&gt; &lt;nyinaa."|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?k?k??|PROPN&gt; &lt;no|PRON&gt; &lt;ne|CONJ&gt; &lt;?k?t?|VERB&gt; &lt;no|PRON&gt; &lt;p??|VERB&gt; &lt;ab?|NOUN&gt; &lt;nnua|NOUN&gt; &lt;s?|PART&gt; &lt;w?|AUX&gt; &lt;b?twitwa|VERB&gt; &lt;w?n.|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;K?k??|PROPN&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;kyer??|VERB&gt; &lt;Ananse|PROPN&gt; &lt;s?,|PART&gt; &lt;"Fa|VERB&gt; &lt;sekan|NOUN&gt; &lt;no|PRON&gt; &lt;ma|VERB&gt; &lt;me|PRON&gt; &lt;na|CONJ&gt; &lt;me|PRON&gt; &lt;nk?twitwa|VERB&gt; &lt;nnua|NOUN&gt; &lt;no,|PRON&gt; &lt;na|CONJ&gt; &lt;wo|PRON&gt; &lt;nso|PART&gt; &lt;fa|VERB&gt; &lt;adwuma|NOUN&gt; &lt;no|PRON&gt; &lt;ho|NOUN&gt; &lt;kanea."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Wop?|VERB&gt; &lt;s?|PART&gt; &lt;wok?fa|VERB&gt; &lt;me|PRON&gt; &lt;s?|PART&gt; &lt;kwasea|NOUN&gt; &lt;anaa;|PART&gt; &lt;me|PRON&gt; &lt;nko|PART&gt; &lt;ara|ADV&gt; &lt;b?twitwa|VERB&gt; &lt;nnua|NOUN&gt; &lt;no,|PRON&gt; &lt;na|CONJ&gt; &lt;wo|PRON&gt; &lt;nso|PART&gt; &lt;fa|VERB&gt; &lt;adwuma|NOUN&gt; &lt;no|PRON&gt; &lt;ho|NOUN&gt; &lt;kanea."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;na|CONJ&gt; &lt;?retwitwa|VERB&gt; &lt;nnua|NOUN&gt; &lt;no,|PRON&gt; &lt;?nna|CONJ&gt; &lt;Anene|PROPN&gt; &lt;no|PRON&gt; &lt;te|VERB&gt; &lt;h?|NOUN&gt; &lt;na|CONJ&gt; &lt;?repae.|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;S?|PART&gt; &lt;?wiee|VERB&gt; &lt;twitwa|VERB&gt; &lt;no|PRON&gt; &lt;a,|PART&gt; &lt;w?|AUX&gt; &lt;de|VERB&gt; &lt;w?n|PRON&gt; &lt;hy??|VERB&gt; &lt;ab?ntene|NOUN&gt; &lt;mu.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;K?k??|PROPN&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Ananse,|PROPN&gt; &lt;fa|VERB&gt; &lt;w?n|PRON&gt; &lt;ma|VERB&gt; &lt;me,|PRON&gt; &lt;na|CONJ&gt; &lt;me|PRON&gt; &lt;nk?so|VERB&gt; &lt;w?n,|PRON&gt; &lt;na|CONJ&gt; &lt;wo|PRON&gt; &lt;nso|PART&gt; &lt;fa|VERB&gt; &lt;adwuma|NOUN&gt; &lt;no|PRON&gt; &lt;ho|NOUN&gt; &lt;kanea."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"K?!|PART&gt; &lt;Wop?|VERB&gt; &lt;s?|PART&gt; &lt;wok?fa|VERB&gt; &lt;me|PRON&gt; &lt;s?|PART&gt; &lt;kwasea?"|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?faa|VERB&gt; &lt;w?n|PRON&gt; &lt;de|VERB&gt; &lt;sii|VERB&gt; &lt;ne|PRON&gt; &lt;ti|NOUN&gt; &lt;so.|ADV&gt;</t>
+  </si>
+  <si>
+    <t>&lt;K?k??|PROPN&gt; &lt;no|PRON&gt; &lt;dii|VERB&gt; &lt;n’akyi|NOUN&gt; &lt;na|CONJ&gt; &lt;?repae.|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;S?|PART&gt; &lt;w?k??|VERB&gt; &lt;fie|NOUN&gt; &lt;no,|PRON&gt; &lt;?k?k??|PROPN&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Ma|PRON&gt; &lt;me|PRON&gt; &lt;y?|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;no,|PRON&gt; &lt;na|CONJ&gt; &lt;wo|PRON&gt; &lt;nso|PART&gt; &lt;fa|VERB&gt; &lt;adwuma|NOUN&gt; &lt;no|PRON&gt; &lt;ho|NOUN&gt; &lt;kanea."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Dabi;|ADV&gt; &lt;ma|PRON&gt; &lt;me|PRON&gt; &lt;y?|VERB&gt; &lt;w?n,|PRON&gt; &lt;na|CONJ&gt; &lt;wo|PRON&gt; &lt;nso|PART&gt; &lt;fa|VERB&gt; &lt;adwuma|NOUN&gt; &lt;no|PRON&gt; &lt;ho|NOUN&gt; &lt;kanea."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?nna|CONJ&gt; &lt;?k?k??|PROPN&gt; &lt;no|PRON&gt; &lt;k?tenatenaa|VERB&gt; &lt;ne|PRON&gt; &lt;nan|NOUN&gt; &lt;mu,|PRON&gt; &lt;na|CONJ&gt; &lt;?repae.|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Kwasea,|NOUN&gt; &lt;wose|VERB&gt; &lt;wow?|PRON&gt; &lt;nyansa,|NOUN&gt; &lt;na|CONJ&gt; &lt;afei|ADV&gt; &lt;wores?e."|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;wiee|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;no;|PRON&gt; &lt;?k?k??|PROPN&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Ma|PRON&gt; &lt;me|PRON&gt; &lt;so|PART&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;no|PRON&gt; &lt;na|CONJ&gt; &lt;me|PRON&gt; &lt;nk?de|VERB&gt; &lt;w?n|PRON&gt; &lt;nsuo|NOUN&gt; &lt;mu,|PRON&gt; &lt;na|CONJ&gt; &lt;wo|PRON&gt; &lt;nso|PART&gt; &lt;fa|VERB&gt; &lt;adwuma|NOUN&gt; &lt;no|PRON&gt; &lt;ho|NOUN&gt; &lt;kanea."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Dabi,|ADV&gt; &lt;me|PRON&gt; &lt;nk?de|VERB&gt; &lt;w?n,|PRON&gt; &lt;na|CONJ&gt; &lt;wo|PRON&gt; &lt;nso|PART&gt; &lt;fa|VERB&gt; &lt;adwuma|NOUN&gt; &lt;no|PRON&gt; &lt;ho|NOUN&gt; &lt;kanea."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;W?duruu|VERB&gt; &lt;nsuo|NOUN&gt; &lt;no|PRON&gt; &lt;ho;|PRON&gt; &lt;?k?k??|PROPN&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Agya|NOUN&gt; &lt;Ananse,|PROPN&gt; &lt;aboa|NOUN&gt; &lt;bi|DET&gt; &lt;w?|VERB&gt; &lt;nsuo|NOUN&gt; &lt;no|PRON&gt; &lt;mu,|PRON&gt; &lt;enti|CONJ&gt; &lt;ma|PRON&gt; &lt;me|PRON&gt; &lt;ntena|VERB&gt; &lt;nsuo|NOUN&gt; &lt;no|PRON&gt; &lt;mu|PRON&gt; &lt;si|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;no,|PRON&gt; &lt;s?|PART&gt; &lt;aboa|NOUN&gt; &lt;no|PRON&gt; &lt;b?ka|VERB&gt; &lt;me|PRON&gt; &lt;a,|PART&gt; &lt;?y?|VERB&gt; &lt;me|PRON&gt; &lt;wuo."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"A!|INTJ&gt; &lt;Wop?|VERB&gt; &lt;s?|PART&gt; &lt;wok?fa|VERB&gt; &lt;me|PRON&gt; &lt;s?|PART&gt; &lt;kwasea|NOUN&gt; &lt;p?tee;|NOUN&gt; &lt;me|PRON&gt; &lt;nko|PART&gt; &lt;ara|ADV&gt; &lt;b?si|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;no,|PRON&gt; &lt;na|CONJ&gt; &lt;s?|PART&gt; &lt;aboa|NOUN&gt; &lt;no|PRON&gt; &lt;b?ka|VERB&gt; &lt;me|PRON&gt; &lt;a,|PART&gt; &lt;?y?|VERB&gt; &lt;me|PRON&gt; &lt;wuo."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;faa|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;no|PRON&gt; &lt;de|VERB&gt; &lt;b?si|VERB&gt; &lt;nsuo|NOUN&gt; &lt;no|PRON&gt; &lt;mu,|PRON&gt; &lt;na|CONJ&gt; &lt;w?san|VERB&gt; &lt;k??|VERB&gt; &lt;fie.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ade|NOUN&gt; &lt;kyee|VERB&gt; &lt;a|PART&gt; &lt;adehyew|NOUN&gt; &lt;bae,|VERB&gt; &lt;w?k?hw??|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;no,|PRON&gt; &lt;na|CONJ&gt; &lt;w?kyeree|VERB&gt; &lt;nsuomunam|NOUN&gt; &lt;abien.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?k?k??|PROPN&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Ananse,|PROPN&gt; &lt;fa|VERB&gt; &lt;nsuomunam|NOUN&gt; &lt;abien|NOUN&gt; &lt;yi,|PRON&gt; &lt;na|CONJ&gt; &lt;s?|PART&gt; &lt;?kyena|ADV&gt; &lt;y?k?|VERB&gt; &lt;a,|PART&gt; &lt;na|CONJ&gt; &lt;w?kyeree|VERB&gt; &lt;nsuomunam|NOUN&gt; &lt;anan,|NUM&gt; &lt;?nna|CONJ&gt; &lt;me|PRON&gt; &lt;nso|PART&gt; &lt;me|PRON&gt; &lt;b?fa|VERB&gt; &lt;w?n."|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;b??|VERB&gt; &lt;mmuae|NOUN&gt; &lt;s?,|PART&gt; &lt;"A!|INTJ&gt; &lt;?barima|NOUN&gt; &lt;yi!|PRON&gt; &lt;Wop?|VERB&gt; &lt;s?|PART&gt; &lt;wok?fa|VERB&gt; &lt;me|PRON&gt; &lt;s?|PART&gt; &lt;kwasea|NOUN&gt; &lt;p?tee;|NOUN&gt; &lt;fa|VERB&gt; &lt;abien|NOUN&gt; &lt;yi,|PRON&gt; &lt;na|CONJ&gt; &lt;?kyena|ADV&gt; &lt;me|PRON&gt; &lt;nso|PART&gt; &lt;me|PRON&gt; &lt;b?fa|VERB&gt; &lt;nsuomunam|NOUN&gt; &lt;anan|NOUN&gt; &lt;no."|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?k?k??|PROPN&gt; &lt;no|PRON&gt; &lt;faa|VERB&gt; &lt;w?n.|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ade|NOUN&gt; &lt;kyee|VERB&gt; &lt;a|PART&gt; &lt;w?san|VERB&gt; &lt;k?hw?|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;no,|PRON&gt; &lt;na|CONJ&gt; &lt;w?k?faa|VERB&gt; &lt;nsuomunam|NOUN&gt; &lt;anan.|NUM&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?k?k??|PROPN&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Fa|VERB&gt; &lt;nsuomunam|NOUN&gt; &lt;anan|NUM&gt; &lt;yi,|PRON&gt; &lt;na|CONJ&gt; &lt;s?|PART&gt; &lt;?kyena|ADV&gt; &lt;y?k?|VERB&gt; &lt;a,|PART&gt; &lt;na|CONJ&gt; &lt;w?kyeree|VERB&gt; &lt;nsuomunam|NOUN&gt; &lt;awotwe,|NUM&gt; &lt;?nna|CONJ&gt; &lt;me|PRON&gt; &lt;nso|PART&gt; &lt;me|PRON&gt; &lt;b?fa|VERB&gt; &lt;w?n."|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;b??|VERB&gt; &lt;mmuae|NOUN&gt; &lt;s?,|PART&gt; &lt;"Wop?|VERB&gt; &lt;s?|PART&gt; &lt;wok?fa|VERB&gt; &lt;me|PRON&gt; &lt;s?|PART&gt; &lt;kwasea;|NOUN&gt; &lt;fa|VERB&gt; &lt;anan|NUM&gt; &lt;yi,|PRON&gt; &lt;na|CONJ&gt; &lt;?kyena|ADV&gt; &lt;me|PRON&gt; &lt;nso|PART&gt; &lt;me|PRON&gt; &lt;b?fa|VERB&gt; &lt;nsuomunam|NOUN&gt; &lt;awotwe|NUM&gt; &lt;no."|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ade|NOUN&gt; &lt;kyee|VERB&gt; &lt;a|PART&gt; &lt;w?san|VERB&gt; &lt;k?hw?|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;no,|PRON&gt; &lt;na|CONJ&gt; &lt;w?k?faa|VERB&gt; &lt;nsuomunam|NOUN&gt; &lt;awotwe.|NUM&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?k?k??|PROPN&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Fa|VERB&gt; &lt;w?n,|PRON&gt; &lt;na|CONJ&gt; &lt;?kyena|ADV&gt; &lt;me|PRON&gt; &lt;nso|PART&gt; &lt;me|PRON&gt; &lt;b?fa|VERB&gt; &lt;nsuomunam|NOUN&gt; &lt;duasia."|NUM&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;kae,|VERB&gt; &lt;"Wop?|VERB&gt; &lt;s?|PART&gt; &lt;wok?fa|VERB&gt; &lt;me|PRON&gt; &lt;s?|PART&gt; &lt;kwasea;|NOUN&gt; &lt;fa|VERB&gt; &lt;awotwe|NUM&gt; &lt;no,|PRON&gt; &lt;na|CONJ&gt; &lt;?kyena|ADV&gt; &lt;me|PRON&gt; &lt;nso|PART&gt; &lt;me|PRON&gt; &lt;b?fa|VERB&gt; &lt;nsuomunam|NOUN&gt; &lt;duasia."|NUM&gt;</t>
+  </si>
+  <si>
+    <t>&lt;S?|PART&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;no|PRON&gt; &lt;as?e|VERB&gt; &lt;nyinaa|ADV&gt; &lt;no,|PRON&gt; &lt;?k?k??|PROPN&gt; &lt;no|PRON&gt; &lt;b??|VERB&gt; &lt;kasa|NOUN&gt; &lt;kyer??|VERB&gt; &lt;Ananse|PROPN&gt; &lt;s?,|PART&gt; &lt;"K?|VERB&gt; &lt;fa|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;a|PART&gt; &lt;w?as?e|VERB&gt; &lt;no,|PRON&gt; &lt;na|CONJ&gt; &lt;s?|PART&gt; &lt;obi|PRON&gt; &lt;ton|VERB&gt; &lt;w?n|PRON&gt; &lt;a,|PART&gt; &lt;w?b?gye|VERB&gt; &lt;ntanu|NOUN&gt; &lt;w?|VERB&gt; &lt;w?n|PRON&gt; &lt;so.|ADV&gt; &lt;Enti|ADV&gt; &lt;fa|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;a|PART&gt; &lt;w?as?e|VERB&gt; &lt;no|PRON&gt; &lt;ma|PRON&gt; &lt;me."|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Dabi,|ADV&gt; &lt;fa|VERB&gt; &lt;nsuomunam|NOUN&gt; &lt;no|PRON&gt; &lt;k?t?n,|VERB&gt; &lt;na|CONJ&gt; &lt;me|PRON&gt; &lt;nso|PART&gt; &lt;mefa|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;a|PART&gt; &lt;w?as?e|VERB&gt; &lt;no,|PRON&gt; &lt;na|CONJ&gt; &lt;mey?|VERB&gt; &lt;w?n|PRON&gt; &lt;adwuma."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;W?de|VERB&gt; &lt;w?n|PRON&gt; &lt;nne?ma|NOUN&gt; &lt;no|PRON&gt; &lt;k?|VERB&gt; &lt;duruu|VERB&gt; &lt;edwuma.|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?h?|ADV&gt; &lt;ara|ADV&gt; &lt;na|CONJ&gt; &lt;?k?k??|PROPN&gt; &lt;no|PRON&gt; &lt;de|VERB&gt; &lt;ne|PRON&gt; &lt;nne?ma|NOUN&gt; &lt;nyinaa|ADV&gt; &lt;y?|VERB&gt; &lt;adwuma;|NOUN&gt; &lt;?nyaa|VERB&gt; &lt;sikak?k??|NOUN&gt; &lt;bebree.|ADV&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Nanso|CONJ&gt; &lt;Ananse|PROPN&gt; &lt;de?,|VERB&gt; &lt;?da|VERB&gt; &lt;h?|NOUN&gt; &lt;ara.|ADV&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?k?k??|PROPN&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Fa|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;a|PART&gt; &lt;w?as?e|VERB&gt; &lt;no|PRON&gt; &lt;y?|VERB&gt; &lt;adwuma,|NOUN&gt; &lt;na|CONJ&gt; &lt;nnipa|NOUN&gt; &lt;b?t?|VERB&gt; &lt;w?n."|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;faa|VERB&gt; &lt;w?n|PRON&gt; &lt;so;|PART&gt; &lt;?kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Mek?t?n|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;a|PART&gt; &lt;w?as?e|VERB&gt; &lt;no!"|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?h?|ADV&gt; &lt;ara|ADV&gt; &lt;na|CONJ&gt; &lt;kurom|NOUN&gt; &lt;hene|NOUN&gt; &lt;no|PRON&gt; &lt;tee|VERB&gt; &lt;no,|PRON&gt; &lt;na|CONJ&gt; &lt;?kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Saa|ADV&gt; &lt;?barima|NOUN&gt; &lt;yi|PRON&gt; &lt;fi|VERB&gt; &lt;he?|ADV&gt; &lt;Monk?fr?|VERB&gt; &lt;no|PRON&gt; &lt;mma|PART&gt; &lt;?mmra."|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ananse|PROPN&gt; &lt;k?e.|VERB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Hene|NOUN&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Wop?|VERB&gt; &lt;s?|PART&gt; &lt;wok?fa|VERB&gt; &lt;y?n|PRON&gt; &lt;s?|PART&gt; &lt;nkwaseafo?|NOUN&gt; &lt;w?|VERB&gt; &lt;kurom|NOUN&gt; &lt;ha?|ADV&gt; &lt;Wo|PRON&gt; &lt;y?nko|NOUN&gt; &lt;t?n|VERB&gt; &lt;nsuomunam|NOUN&gt; &lt;gye|VERB&gt; &lt;sika,|NOUN&gt; &lt;wo|PRON&gt; &lt;so|PART&gt; &lt;n’ank?hw?|VERB&gt; &lt;no,|PRON&gt; &lt;nanso|CONJ&gt; &lt;wob?t?n|VERB&gt; &lt;nsuo|NOUN&gt; &lt;nsoa|NOUN&gt; &lt;a|PART&gt; &lt;w?as?e|VERB&gt; &lt;no|PRON&gt; &lt;ama|VERB&gt; &lt;y?n?"|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Hene|NOUN&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Momfa|VERB&gt; &lt;ntama."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Enti|ADV&gt; &lt;w?bob??|VERB&gt; &lt;no.|PRON&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?k?k??|PROPN&gt; &lt;no|PRON&gt; &lt;kae|VERB&gt; &lt;s?,|PART&gt; &lt;"Ananse,|PROPN&gt; &lt;w’ahu|VERB&gt; &lt;s?|PART&gt; &lt;w’ani|NOUN&gt; &lt;awu|VERB&gt; &lt;w?|VERB&gt; &lt;aniwu|NOUN&gt; &lt;ho;|NOUN&gt; &lt;woka|VERB&gt; &lt;s?|PART&gt; &lt;worek?hwehw?|VERB&gt; &lt;kwasea|NOUN&gt; &lt;a|PART&gt; &lt;?b?y?|VERB&gt; &lt;adwuma|NOUN&gt; &lt;ma|PRON&gt; &lt;wo,|PRON&gt; &lt;na|CONJ&gt; &lt;afei|ADV&gt; &lt;w’ahu|VERB&gt; &lt;s?|PART&gt; &lt;wo|PRON&gt; &lt;ara|ADV&gt; &lt;na|CONJ&gt; &lt;woy?|VERB&gt; &lt;kwasea."|NOUN&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Anansesem|NOUN&gt; &lt;a|PART&gt; &lt;mitete?|VERB&gt; &lt;no|PRON&gt; &lt;yi,|PRON&gt; &lt;s?|PART&gt; &lt;?y?|VERB&gt; &lt;d?|ADV&gt; &lt;a,|PART&gt; &lt;na|CONJ&gt; &lt;s?|PART&gt; &lt;?ny?|VERB&gt; &lt;d?|ADV&gt; &lt;a,|PART&gt; &lt;fa|VERB&gt; &lt;bi|PRON&gt; &lt;k?,|PART&gt; &lt;na|CONJ&gt; &lt;fa|VERB&gt; &lt;bi|PRON&gt; &lt;bra|VERB&gt; &lt;mma|PART&gt; &lt;me.|PRON&gt;</t>
   </si>
 </sst>
 </file>
@@ -1225,17 +1702,20 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="48.08984375" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="41.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="50.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -1295,6 +1775,15 @@
       <c r="E2" t="s">
         <v>225</v>
       </c>
+      <c r="F2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H2" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1312,6 +1801,15 @@
       <c r="E3" t="s">
         <v>226</v>
       </c>
+      <c r="F3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1329,6 +1827,15 @@
       <c r="E4" t="s">
         <v>227</v>
       </c>
+      <c r="F4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1346,6 +1853,15 @@
       <c r="E5" t="s">
         <v>228</v>
       </c>
+      <c r="F5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" t="s">
+        <v>334</v>
+      </c>
+      <c r="H5" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1363,6 +1879,15 @@
       <c r="E6" t="s">
         <v>229</v>
       </c>
+      <c r="F6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H6" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1380,6 +1905,15 @@
       <c r="E7" t="s">
         <v>230</v>
       </c>
+      <c r="F7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H7" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -1397,6 +1931,15 @@
       <c r="E8" t="s">
         <v>231</v>
       </c>
+      <c r="F8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H8" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1414,6 +1957,15 @@
       <c r="E9" t="s">
         <v>232</v>
       </c>
+      <c r="F9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1431,6 +1983,15 @@
       <c r="E10" t="s">
         <v>233</v>
       </c>
+      <c r="F10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1448,6 +2009,15 @@
       <c r="E11" t="s">
         <v>234</v>
       </c>
+      <c r="F11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H11" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1465,6 +2035,15 @@
       <c r="E12" t="s">
         <v>235</v>
       </c>
+      <c r="F12" t="s">
+        <v>288</v>
+      </c>
+      <c r="G12" t="s">
+        <v>341</v>
+      </c>
+      <c r="H12" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1482,6 +2061,15 @@
       <c r="E13" t="s">
         <v>236</v>
       </c>
+      <c r="F13" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" t="s">
+        <v>342</v>
+      </c>
+      <c r="H13" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1499,6 +2087,15 @@
       <c r="E14" t="s">
         <v>237</v>
       </c>
+      <c r="F14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" t="s">
+        <v>343</v>
+      </c>
+      <c r="H14" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1516,6 +2113,15 @@
       <c r="E15" t="s">
         <v>238</v>
       </c>
+      <c r="F15" t="s">
+        <v>291</v>
+      </c>
+      <c r="G15" t="s">
+        <v>344</v>
+      </c>
+      <c r="H15" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1533,8 +2139,17 @@
       <c r="E16" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" t="s">
+        <v>345</v>
+      </c>
+      <c r="H16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1550,8 +2165,17 @@
       <c r="E17" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>293</v>
+      </c>
+      <c r="G17" t="s">
+        <v>346</v>
+      </c>
+      <c r="H17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1567,8 +2191,17 @@
       <c r="E18" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>294</v>
+      </c>
+      <c r="G18" t="s">
+        <v>347</v>
+      </c>
+      <c r="H18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1584,8 +2217,17 @@
       <c r="E19" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>295</v>
+      </c>
+      <c r="G19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1601,8 +2243,17 @@
       <c r="E20" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>296</v>
+      </c>
+      <c r="G20" t="s">
+        <v>349</v>
+      </c>
+      <c r="H20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1618,8 +2269,17 @@
       <c r="E21" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>297</v>
+      </c>
+      <c r="G21" t="s">
+        <v>350</v>
+      </c>
+      <c r="H21" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1635,8 +2295,17 @@
       <c r="E22" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>298</v>
+      </c>
+      <c r="G22" t="s">
+        <v>351</v>
+      </c>
+      <c r="H22" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1652,8 +2321,17 @@
       <c r="E23" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>299</v>
+      </c>
+      <c r="G23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1669,8 +2347,17 @@
       <c r="E24" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>300</v>
+      </c>
+      <c r="G24" t="s">
+        <v>353</v>
+      </c>
+      <c r="H24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1686,8 +2373,17 @@
       <c r="E25" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G25" t="s">
+        <v>354</v>
+      </c>
+      <c r="H25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1703,8 +2399,17 @@
       <c r="E26" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>302</v>
+      </c>
+      <c r="G26" t="s">
+        <v>355</v>
+      </c>
+      <c r="H26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1720,8 +2425,17 @@
       <c r="E27" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G27" t="s">
+        <v>356</v>
+      </c>
+      <c r="H27" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1737,8 +2451,17 @@
       <c r="E28" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" t="s">
+        <v>357</v>
+      </c>
+      <c r="H28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1754,8 +2477,17 @@
       <c r="E29" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>305</v>
+      </c>
+      <c r="G29" t="s">
+        <v>358</v>
+      </c>
+      <c r="H29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1771,8 +2503,17 @@
       <c r="E30" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>306</v>
+      </c>
+      <c r="G30" t="s">
+        <v>359</v>
+      </c>
+      <c r="H30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1788,8 +2529,17 @@
       <c r="E31" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>307</v>
+      </c>
+      <c r="G31" t="s">
+        <v>360</v>
+      </c>
+      <c r="H31" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1805,8 +2555,17 @@
       <c r="E32" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>308</v>
+      </c>
+      <c r="G32" t="s">
+        <v>361</v>
+      </c>
+      <c r="H32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1822,8 +2581,17 @@
       <c r="E33" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>309</v>
+      </c>
+      <c r="G33" t="s">
+        <v>362</v>
+      </c>
+      <c r="H33" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1839,8 +2607,17 @@
       <c r="E34" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" t="s">
+        <v>363</v>
+      </c>
+      <c r="H34" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1856,8 +2633,17 @@
       <c r="E35" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" t="s">
+        <v>364</v>
+      </c>
+      <c r="H35" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1873,8 +2659,17 @@
       <c r="E36" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>365</v>
+      </c>
+      <c r="H36" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1890,8 +2685,17 @@
       <c r="E37" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>313</v>
+      </c>
+      <c r="G37" t="s">
+        <v>366</v>
+      </c>
+      <c r="H37" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1907,8 +2711,17 @@
       <c r="E38" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>314</v>
+      </c>
+      <c r="G38" t="s">
+        <v>367</v>
+      </c>
+      <c r="H38" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1924,8 +2737,17 @@
       <c r="E39" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" t="s">
+        <v>368</v>
+      </c>
+      <c r="H39" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1941,8 +2763,17 @@
       <c r="E40" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" t="s">
+        <v>316</v>
+      </c>
+      <c r="G40" t="s">
+        <v>369</v>
+      </c>
+      <c r="H40" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1958,8 +2789,17 @@
       <c r="E41" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>317</v>
+      </c>
+      <c r="G41" t="s">
+        <v>370</v>
+      </c>
+      <c r="H41" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1975,8 +2815,17 @@
       <c r="E42" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>318</v>
+      </c>
+      <c r="G42" t="s">
+        <v>371</v>
+      </c>
+      <c r="H42" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1992,8 +2841,17 @@
       <c r="E43" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" t="s">
+        <v>319</v>
+      </c>
+      <c r="G43" t="s">
+        <v>372</v>
+      </c>
+      <c r="H43" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2009,8 +2867,17 @@
       <c r="E44" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" t="s">
+        <v>320</v>
+      </c>
+      <c r="G44" t="s">
+        <v>373</v>
+      </c>
+      <c r="H44" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -2026,8 +2893,17 @@
       <c r="E45" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
+        <v>321</v>
+      </c>
+      <c r="G45" t="s">
+        <v>374</v>
+      </c>
+      <c r="H45" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2043,8 +2919,17 @@
       <c r="E46" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
+        <v>322</v>
+      </c>
+      <c r="G46" t="s">
+        <v>375</v>
+      </c>
+      <c r="H46" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -2060,8 +2945,17 @@
       <c r="E47" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" t="s">
+        <v>376</v>
+      </c>
+      <c r="H47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -2077,8 +2971,17 @@
       <c r="E48" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>324</v>
+      </c>
+      <c r="G48" t="s">
+        <v>377</v>
+      </c>
+      <c r="H48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2094,8 +2997,17 @@
       <c r="E49" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
+        <v>325</v>
+      </c>
+      <c r="G49" t="s">
+        <v>378</v>
+      </c>
+      <c r="H49" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -2111,8 +3023,17 @@
       <c r="E50" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" t="s">
+        <v>379</v>
+      </c>
+      <c r="H50" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -2128,8 +3049,17 @@
       <c r="E51" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51" t="s">
+        <v>327</v>
+      </c>
+      <c r="G51" t="s">
+        <v>380</v>
+      </c>
+      <c r="H51" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2145,8 +3075,17 @@
       <c r="E52" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>328</v>
+      </c>
+      <c r="G52" t="s">
+        <v>381</v>
+      </c>
+      <c r="H52" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -2162,8 +3101,17 @@
       <c r="E53" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" t="s">
+        <v>329</v>
+      </c>
+      <c r="G53" t="s">
+        <v>382</v>
+      </c>
+      <c r="H53" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -2178,6 +3126,15 @@
       </c>
       <c r="E54" t="s">
         <v>277</v>
+      </c>
+      <c r="F54" t="s">
+        <v>330</v>
+      </c>
+      <c r="G54" t="s">
+        <v>383</v>
+      </c>
+      <c r="H54" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/Ananse2/Ananse2Learned.xlsx
+++ b/Ananse2/Ananse2Learned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akan\New Ananse Tales\Ananse2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F43E01BC-A088-474F-AFD9-3D07DECB9318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D664EFC-5915-4116-83A5-CE23CB3B1499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29100" yWindow="5475" windowWidth="17325" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Learned" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="507">
   <si>
     <t>AKAN</t>
   </si>
@@ -1333,30 +1333,6 @@
     <t>&lt;Anansesem|NOUN&gt; &lt;a|PART&gt; &lt;mitete?|VERB&gt; &lt;no|PRON&gt; &lt;yi,|PRON&gt; &lt;s?|PART&gt; &lt;?y?|VERB&gt; &lt;d?|ADV&gt; &lt;a,|PART&gt; &lt;na|CONJ&gt; &lt;s?|PART&gt; &lt;?ny?|VERB&gt; &lt;d?|ADV&gt; &lt;a,|PART&gt; &lt;fa|VERB&gt; &lt;bi|PRON&gt; &lt;k?,|PART&gt; &lt;na|CONJ&gt; &lt;fa|VERB&gt; &lt;bi|PRON&gt; &lt;bra|VERB&gt; &lt;mma|PART&gt; &lt;me.|PRON&gt;</t>
   </si>
   <si>
-    <t>Act I</t>
-  </si>
-  <si>
-    <t>Act II</t>
-  </si>
-  <si>
-    <t>Act III</t>
-  </si>
-  <si>
-    <t>Scene 1</t>
-  </si>
-  <si>
-    <t>Scene 2</t>
-  </si>
-  <si>
-    <t>Scene 3</t>
-  </si>
-  <si>
-    <t>Scene 4</t>
-  </si>
-  <si>
-    <t>Act IV</t>
-  </si>
-  <si>
     <t>Sets the tone for the story, suggesting the narrative is metaphorical.</t>
   </si>
   <si>
@@ -1516,7 +1492,55 @@
     <t>The narrator concludes the story, inviting reflection on its moral.</t>
   </si>
   <si>
-    <t>Scene 5</t>
+    <t>Act I: "The Recruitment"</t>
+  </si>
+  <si>
+    <t>Act II: "The Manipulations"</t>
+  </si>
+  <si>
+    <t>Act III: "The Reckoning"</t>
+  </si>
+  <si>
+    <t>Act IV: "The Reflection"</t>
+  </si>
+  <si>
+    <t>Scene 1: "Ananse announces his quest to find a fool, encountering Osansa, who declines."</t>
+  </si>
+  <si>
+    <t>Scene 2: "Ananse convinces Anene to join him despite the latter's initial reservations."</t>
+  </si>
+  <si>
+    <t>Scene 3: "Ananse and Anene work together, with Ananse attempting to trick Anene into carrying the heavier burdens."</t>
+  </si>
+  <si>
+    <t>Scene 1: "The traps yield fish, but disputes arise over the division of labor and spoils."</t>
+  </si>
+  <si>
+    <t>Scene 2: "The final escalation as Ananse pushes his schemes too far."</t>
+  </si>
+  <si>
+    <t>Scene 3: "Anene skillfully outmaneuvers Ananse, leading to a confrontation in the village."</t>
+  </si>
+  <si>
+    <t>Scene 1: "The Chief’s intervention and judgment against Ananse."</t>
+  </si>
+  <si>
+    <t>Scene 2: "Ananse reflects on his actions, realizing he became the fool in his quest."</t>
+  </si>
+  <si>
+    <t>Scene 3: "Ananse resigns to his punishment, completing his tale of folly."</t>
+  </si>
+  <si>
+    <t>Scene 1: "Ananse is publicly humiliated, as the Chief declares the folly of his actions."</t>
+  </si>
+  <si>
+    <t>Scene 2: "Ananse resigns to his punishment, completing his tale of folly."</t>
+  </si>
+  <si>
+    <t>Scene 4: "The moral of the story is revealed, emphasizing justice and irony."</t>
+  </si>
+  <si>
+    <t>Scene 5: "The story closes with Ananse's reflection on the lessons learned, bringing justice full circle."</t>
   </si>
 </sst>
 </file>
@@ -1887,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1902,7 +1926,7 @@
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="12.81640625" customWidth="1"/>
     <col min="9" max="9" width="13.26953125" customWidth="1"/>
-    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" customWidth="1"/>
     <col min="11" max="11" width="49.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1973,13 +1997,13 @@
         <v>384</v>
       </c>
       <c r="I2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="J2" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="K2" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -2008,13 +2032,13 @@
         <v>385</v>
       </c>
       <c r="I3" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="J3" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="K3" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -2043,13 +2067,13 @@
         <v>386</v>
       </c>
       <c r="I4" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="J4" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="K4" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -2078,13 +2102,13 @@
         <v>387</v>
       </c>
       <c r="I5" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="J5" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="K5" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -2113,13 +2137,13 @@
         <v>388</v>
       </c>
       <c r="I6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="J6" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="K6" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -2148,13 +2172,13 @@
         <v>389</v>
       </c>
       <c r="I7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="J7" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="K7" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -2183,13 +2207,13 @@
         <v>390</v>
       </c>
       <c r="I8" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="J8" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="K8" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -2218,13 +2242,13 @@
         <v>391</v>
       </c>
       <c r="I9" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="J9" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="K9" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -2253,13 +2277,13 @@
         <v>392</v>
       </c>
       <c r="I10" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J10" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="K10" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -2288,13 +2312,13 @@
         <v>393</v>
       </c>
       <c r="I11" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="J11" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="K11" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -2323,13 +2347,13 @@
         <v>394</v>
       </c>
       <c r="I12" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J12" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="K12" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -2358,13 +2382,13 @@
         <v>395</v>
       </c>
       <c r="I13" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="J13" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K13" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -2393,13 +2417,13 @@
         <v>396</v>
       </c>
       <c r="I14" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="J14" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K14" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -2428,13 +2452,13 @@
         <v>397</v>
       </c>
       <c r="I15" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J15" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K15" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -2463,13 +2487,13 @@
         <v>398</v>
       </c>
       <c r="I16" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="J16" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K16" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -2498,13 +2522,13 @@
         <v>399</v>
       </c>
       <c r="I17" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="J17" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K17" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -2533,13 +2557,13 @@
         <v>400</v>
       </c>
       <c r="I18" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="J18" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K18" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -2568,13 +2592,13 @@
         <v>401</v>
       </c>
       <c r="I19" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="J19" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K19" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -2603,13 +2627,13 @@
         <v>402</v>
       </c>
       <c r="I20" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="J20" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K20" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -2638,13 +2662,13 @@
         <v>403</v>
       </c>
       <c r="I21" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="J21" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K21" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -2673,13 +2697,13 @@
         <v>404</v>
       </c>
       <c r="I22" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="J22" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K22" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -2708,13 +2732,13 @@
         <v>405</v>
       </c>
       <c r="I23" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="J23" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K23" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -2743,13 +2767,13 @@
         <v>406</v>
       </c>
       <c r="I24" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="J24" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K24" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -2778,13 +2802,13 @@
         <v>407</v>
       </c>
       <c r="I25" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="J25" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K25" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -2813,13 +2837,13 @@
         <v>408</v>
       </c>
       <c r="I26" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="J26" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K26" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -2848,13 +2872,13 @@
         <v>409</v>
       </c>
       <c r="I27" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J27" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K27" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -2883,13 +2907,13 @@
         <v>410</v>
       </c>
       <c r="I28" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="J28" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K28" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -2918,13 +2942,13 @@
         <v>411</v>
       </c>
       <c r="I29" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="J29" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K29" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -2953,13 +2977,13 @@
         <v>412</v>
       </c>
       <c r="I30" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="J30" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K30" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -2988,13 +3012,13 @@
         <v>413</v>
       </c>
       <c r="I31" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="J31" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="K31" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -3023,13 +3047,13 @@
         <v>414</v>
       </c>
       <c r="I32" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="J32" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="K32" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -3058,13 +3082,13 @@
         <v>415</v>
       </c>
       <c r="I33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="J33" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="K33" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -3093,13 +3117,13 @@
         <v>416</v>
       </c>
       <c r="I34" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="J34" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="K34" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -3128,13 +3152,13 @@
         <v>417</v>
       </c>
       <c r="I35" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="J35" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="K35" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -3163,13 +3187,13 @@
         <v>418</v>
       </c>
       <c r="I36" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="J36" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="K36" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -3198,13 +3222,13 @@
         <v>419</v>
       </c>
       <c r="I37" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="J37" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="K37" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -3233,13 +3257,13 @@
         <v>420</v>
       </c>
       <c r="I38" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="J38" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="K38" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -3268,13 +3292,13 @@
         <v>421</v>
       </c>
       <c r="I39" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="J39" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="K39" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -3303,13 +3327,13 @@
         <v>422</v>
       </c>
       <c r="I40" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J40" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="K40" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -3338,13 +3362,13 @@
         <v>423</v>
       </c>
       <c r="I41" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J41" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K41" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -3373,13 +3397,13 @@
         <v>424</v>
       </c>
       <c r="I42" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="J42" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K42" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -3408,13 +3432,13 @@
         <v>425</v>
       </c>
       <c r="I43" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="J43" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K43" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -3443,13 +3467,13 @@
         <v>426</v>
       </c>
       <c r="I44" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="J44" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K44" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -3478,13 +3502,13 @@
         <v>427</v>
       </c>
       <c r="I45" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="J45" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K45" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -3513,13 +3537,13 @@
         <v>428</v>
       </c>
       <c r="I46" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="J46" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K46" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -3548,13 +3572,13 @@
         <v>429</v>
       </c>
       <c r="I47" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="J47" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K47" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -3583,13 +3607,13 @@
         <v>430</v>
       </c>
       <c r="I48" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="J48" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K48" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -3618,13 +3642,13 @@
         <v>431</v>
       </c>
       <c r="I49" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="J49" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K49" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -3653,13 +3677,13 @@
         <v>432</v>
       </c>
       <c r="I50" t="s">
+        <v>485</v>
+      </c>
+      <c r="J50" t="s">
         <v>493</v>
       </c>
-      <c r="J50" t="s">
-        <v>444</v>
-      </c>
       <c r="K50" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -3688,13 +3712,13 @@
         <v>433</v>
       </c>
       <c r="I51" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="J51" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K51" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -3723,13 +3747,13 @@
         <v>434</v>
       </c>
       <c r="I52" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="J52" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K52" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -3758,13 +3782,13 @@
         <v>435</v>
       </c>
       <c r="I53" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="J53" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K53" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -3793,13 +3817,13 @@
         <v>436</v>
       </c>
       <c r="I54" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="J54" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="K54" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/Ananse2/Ananse2Learned.xlsx
+++ b/Ananse2/Ananse2Learned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akan\New Ananse Tales\Ananse2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D664EFC-5915-4116-83A5-CE23CB3B1499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A59A85-AC89-4B3F-9688-5C9475AF1E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29100" yWindow="5475" windowWidth="17325" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="508">
   <si>
     <t>AKAN</t>
   </si>
@@ -1492,55 +1492,58 @@
     <t>The narrator concludes the story, inviting reflection on its moral.</t>
   </si>
   <si>
-    <t>Act I: "The Recruitment"</t>
-  </si>
-  <si>
-    <t>Act II: "The Manipulations"</t>
-  </si>
-  <si>
-    <t>Act III: "The Reckoning"</t>
-  </si>
-  <si>
-    <t>Act IV: "The Reflection"</t>
-  </si>
-  <si>
-    <t>Scene 1: "Ananse announces his quest to find a fool, encountering Osansa, who declines."</t>
-  </si>
-  <si>
-    <t>Scene 2: "Ananse convinces Anene to join him despite the latter's initial reservations."</t>
-  </si>
-  <si>
-    <t>Scene 3: "Ananse and Anene work together, with Ananse attempting to trick Anene into carrying the heavier burdens."</t>
-  </si>
-  <si>
-    <t>Scene 1: "The traps yield fish, but disputes arise over the division of labor and spoils."</t>
-  </si>
-  <si>
-    <t>Scene 2: "The final escalation as Ananse pushes his schemes too far."</t>
-  </si>
-  <si>
-    <t>Scene 3: "Anene skillfully outmaneuvers Ananse, leading to a confrontation in the village."</t>
-  </si>
-  <si>
-    <t>Scene 1: "The Chief’s intervention and judgment against Ananse."</t>
-  </si>
-  <si>
-    <t>Scene 2: "Ananse reflects on his actions, realizing he became the fool in his quest."</t>
-  </si>
-  <si>
-    <t>Scene 3: "Ananse resigns to his punishment, completing his tale of folly."</t>
-  </si>
-  <si>
-    <t>Scene 1: "Ananse is publicly humiliated, as the Chief declares the folly of his actions."</t>
-  </si>
-  <si>
-    <t>Scene 2: "Ananse resigns to his punishment, completing his tale of folly."</t>
-  </si>
-  <si>
-    <t>Scene 4: "The moral of the story is revealed, emphasizing justice and irony."</t>
-  </si>
-  <si>
-    <t>Scene 5: "The story closes with Ananse's reflection on the lessons learned, bringing justice full circle."</t>
+    <t>Act I: The Recruitment</t>
+  </si>
+  <si>
+    <t>Act II: The Manipulations</t>
+  </si>
+  <si>
+    <t>Act III: The Reckoning</t>
+  </si>
+  <si>
+    <t>Act IV: The Reflection</t>
+  </si>
+  <si>
+    <t>Scene 1: Ananse's Quest for a Fool</t>
+  </si>
+  <si>
+    <t>Scene 2: Encountering the Hawk and the Crow</t>
+  </si>
+  <si>
+    <t>Scene 3: Setting the Traps and the First Conflict</t>
+  </si>
+  <si>
+    <t>Scene 1: Ananse’s Deception Begins</t>
+  </si>
+  <si>
+    <t>Scene 2: The Burden Debate</t>
+  </si>
+  <si>
+    <t>Scene 3: Division of Spoils</t>
+  </si>
+  <si>
+    <t>Scene 1: Ananse Outwitted</t>
+  </si>
+  <si>
+    <t>Scene 2: The River Beast Ruse</t>
+  </si>
+  <si>
+    <t>Scene 3: The Spoiled Traps</t>
+  </si>
+  <si>
+    <t>Scene 1: The Marketplace Humiliation</t>
+  </si>
+  <si>
+    <t>Scene 2: Villagers' Verdict</t>
+  </si>
+  <si>
+    <t>Scene 3: Ananse’s Reflection</t>
+  </si>
+  <si>
+    <t>Scene 4: The Crow’s Triumph</t>
+  </si>
+  <si>
+    <t>Scene 5: Ananse's Acknowledgment of Folly</t>
   </si>
 </sst>
 </file>
@@ -1911,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K54"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3543,7 +3546,7 @@
         <v>493</v>
       </c>
       <c r="K46" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -3578,7 +3581,7 @@
         <v>493</v>
       </c>
       <c r="K47" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -3613,7 +3616,7 @@
         <v>493</v>
       </c>
       <c r="K48" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -3648,7 +3651,7 @@
         <v>493</v>
       </c>
       <c r="K49" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -3683,7 +3686,7 @@
         <v>493</v>
       </c>
       <c r="K50" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -3718,7 +3721,7 @@
         <v>493</v>
       </c>
       <c r="K51" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -3753,7 +3756,7 @@
         <v>493</v>
       </c>
       <c r="K52" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -3788,7 +3791,7 @@
         <v>493</v>
       </c>
       <c r="K53" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -3823,7 +3826,7 @@
         <v>493</v>
       </c>
       <c r="K54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
